--- a/Words.xlsx
+++ b/Words.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pluservice-my.sharepoint.com/personal/f_castelli_pluservice_net/Documents/Documenti/prompt_patterns/Inglese/App/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Progetti\LearningEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_ED542D814A6D88E3D7E920369540D2640B4448BB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B35396C2-220B-4622-94CD-93B1807396F4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B1680A-1E0D-4B4A-A53D-C5CD664A276A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,578 +26,293 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="220">
   <si>
     <t>chalked a line s</t>
   </si>
   <si>
-    <t>Tracciare una linea</t>
-  </si>
-  <si>
     <t>thirst</t>
   </si>
   <si>
-    <t>Sete</t>
-  </si>
-  <si>
     <t>owe</t>
   </si>
   <si>
-    <t>Essere debitore</t>
-  </si>
-  <si>
     <t>creeks</t>
   </si>
   <si>
-    <t>Ruscelli</t>
-  </si>
-  <si>
     <t xml:space="preserve">barn </t>
   </si>
   <si>
-    <t>Fienile</t>
-  </si>
-  <si>
     <t xml:space="preserve">grave </t>
   </si>
   <si>
-    <t>Tomba</t>
-  </si>
-  <si>
     <t>dug</t>
   </si>
   <si>
-    <t>Scavato - passato di dig</t>
-  </si>
-  <si>
     <t>faith</t>
   </si>
   <si>
-    <t>Fede</t>
-  </si>
-  <si>
     <t>get on</t>
   </si>
   <si>
-    <t>Salire</t>
-  </si>
-  <si>
     <t xml:space="preserve">haunt </t>
   </si>
   <si>
-    <t>Infestare</t>
-  </si>
-  <si>
     <t>propellers</t>
   </si>
   <si>
-    <t>Eliche</t>
-  </si>
-  <si>
     <t xml:space="preserve">chasing </t>
   </si>
   <si>
-    <t>Inseguire</t>
-  </si>
-  <si>
     <t>cease</t>
   </si>
   <si>
-    <t>cessare</t>
-  </si>
-  <si>
     <t>sparrow</t>
   </si>
   <si>
-    <t>passero</t>
-  </si>
-  <si>
     <t>card issuer</t>
   </si>
   <si>
-    <t>Emettitore carte</t>
-  </si>
-  <si>
     <t xml:space="preserve">issuer </t>
   </si>
   <si>
-    <t>emettitore</t>
-  </si>
-  <si>
     <t xml:space="preserve">tier </t>
   </si>
   <si>
-    <t>livello</t>
-  </si>
-  <si>
     <t>pops out</t>
   </si>
   <si>
-    <t>salta fuori</t>
-  </si>
-  <si>
     <t>mess</t>
   </si>
   <si>
-    <t>disordine</t>
-  </si>
-  <si>
     <t xml:space="preserve">struggle </t>
   </si>
   <si>
-    <t>lotta</t>
-  </si>
-  <si>
     <t>razor</t>
   </si>
   <si>
-    <t>rasoio</t>
-  </si>
-  <si>
     <t>weird</t>
   </si>
   <si>
-    <t>strano</t>
-  </si>
-  <si>
     <t>hurt</t>
   </si>
   <si>
-    <t>Doloro/ferita</t>
-  </si>
-  <si>
     <t>elbow</t>
   </si>
   <si>
-    <t>gomito</t>
-  </si>
-  <si>
     <t>shed a tear</t>
   </si>
   <si>
-    <t>Versare una lacrima</t>
-  </si>
-  <si>
     <t>coming along</t>
   </si>
   <si>
-    <t>arrivando</t>
-  </si>
-  <si>
     <t>bub guy</t>
   </si>
   <si>
-    <t>ragazzo carino</t>
-  </si>
-  <si>
     <t xml:space="preserve">glimmer </t>
   </si>
   <si>
-    <t>barlume</t>
-  </si>
-  <si>
     <t>finest</t>
   </si>
   <si>
-    <t>più bello</t>
-  </si>
-  <si>
     <t>afraid</t>
   </si>
   <si>
-    <t>paura</t>
-  </si>
-  <si>
     <t>ease</t>
   </si>
   <si>
-    <t>sollievo</t>
-  </si>
-  <si>
     <t>don't get me wrong</t>
   </si>
   <si>
-    <t>Non fraintendermi</t>
-  </si>
-  <si>
     <t xml:space="preserve">dazzled </t>
   </si>
   <si>
-    <t>abbagliato</t>
-  </si>
-  <si>
     <t xml:space="preserve">tide </t>
   </si>
   <si>
-    <t>marea</t>
-  </si>
-  <si>
     <t xml:space="preserve">havoc </t>
   </si>
   <si>
-    <t>devastazione/scompiglio</t>
-  </si>
-  <si>
     <t>alike</t>
   </si>
   <si>
-    <t>nello stesso modo</t>
-  </si>
-  <si>
     <t>swallowed up</t>
   </si>
   <si>
-    <t>inghiottito</t>
-  </si>
-  <si>
     <t>allegiance</t>
   </si>
   <si>
-    <t>fedeltà</t>
-  </si>
-  <si>
     <t>nail</t>
   </si>
   <si>
-    <t>chiodo</t>
-  </si>
-  <si>
     <t>coffin</t>
   </si>
   <si>
-    <t>bara</t>
-  </si>
-  <si>
     <t>sick</t>
   </si>
   <si>
-    <t>malato</t>
-  </si>
-  <si>
     <t>sin</t>
   </si>
   <si>
-    <t>peccato</t>
-  </si>
-  <si>
     <t>blossom</t>
   </si>
   <si>
-    <t>fiore</t>
-  </si>
-  <si>
     <t>tannery</t>
   </si>
   <si>
-    <t>conceria</t>
-  </si>
-  <si>
     <t>leather</t>
   </si>
   <si>
-    <t>pelle</t>
-  </si>
-  <si>
     <t>gloves</t>
   </si>
   <si>
-    <t>guanti</t>
-  </si>
-  <si>
     <t>fade away</t>
   </si>
   <si>
-    <t>svanire</t>
-  </si>
-  <si>
     <t>cinnamon</t>
   </si>
   <si>
-    <t>cannella</t>
-  </si>
-  <si>
     <t>jasmine</t>
   </si>
   <si>
-    <t>gelsomino</t>
-  </si>
-  <si>
     <t>myrrh</t>
   </si>
   <si>
-    <t>mirra</t>
-  </si>
-  <si>
     <t>sharp</t>
   </si>
   <si>
-    <t>affilata</t>
-  </si>
-  <si>
     <t>soaked</t>
   </si>
   <si>
-    <t>inzuppato</t>
-  </si>
-  <si>
     <t>dousing</t>
   </si>
   <si>
-    <t>bagnare</t>
-  </si>
-  <si>
     <t>sewage</t>
   </si>
   <si>
-    <t>liquami</t>
-  </si>
-  <si>
     <t>lingering</t>
   </si>
   <si>
-    <t>persistente</t>
-  </si>
-  <si>
     <t>livestock</t>
   </si>
   <si>
-    <t>bestiame</t>
-  </si>
-  <si>
     <t>keen to stend up</t>
   </si>
   <si>
-    <t>desideroso di alzarsi in piedi</t>
-  </si>
-  <si>
     <t>keen</t>
   </si>
   <si>
-    <t xml:space="preserve">appassionato/ </t>
-  </si>
-  <si>
     <t>hone</t>
   </si>
   <si>
-    <t>affinare</t>
-  </si>
-  <si>
     <t>chop</t>
   </si>
   <si>
-    <t>taglio</t>
-  </si>
-  <si>
     <t>Further</t>
   </si>
   <si>
-    <t>ulteriore-più lontano</t>
-  </si>
-  <si>
     <t>rough</t>
   </si>
   <si>
-    <t>ruvido</t>
-  </si>
-  <si>
     <t>gorge</t>
   </si>
   <si>
-    <t>gola/burrone</t>
-  </si>
-  <si>
     <t xml:space="preserve">scavenger </t>
   </si>
   <si>
-    <t>spazzino</t>
-  </si>
-  <si>
     <t>stray</t>
   </si>
   <si>
-    <t>randagio</t>
-  </si>
-  <si>
     <t>Mirror World</t>
   </si>
   <si>
-    <t>Universo parallelo</t>
-  </si>
-  <si>
     <t>Glances</t>
   </si>
   <si>
-    <t>Sguardi</t>
-  </si>
-  <si>
     <t>pavement</t>
   </si>
   <si>
-    <t>marciapiede</t>
-  </si>
-  <si>
     <t>keep on</t>
   </si>
   <si>
-    <t>continuare</t>
-  </si>
-  <si>
     <t>stumble on</t>
   </si>
   <si>
-    <t>inciampare</t>
-  </si>
-  <si>
     <t>wake</t>
   </si>
   <si>
-    <t>veglia/scia</t>
-  </si>
-  <si>
     <t xml:space="preserve">drowning </t>
   </si>
   <si>
-    <t>annegare</t>
-  </si>
-  <si>
     <t xml:space="preserve">buy into </t>
   </si>
   <si>
-    <t>accettare</t>
-  </si>
-  <si>
     <t xml:space="preserve">spotlight </t>
   </si>
   <si>
-    <t>riflettore</t>
-  </si>
-  <si>
     <t xml:space="preserve">concern </t>
   </si>
   <si>
-    <t>preoccupazione</t>
-  </si>
-  <si>
     <t xml:space="preserve">plod </t>
   </si>
   <si>
-    <t>arrancare</t>
-  </si>
-  <si>
     <t xml:space="preserve">deem </t>
   </si>
   <si>
-    <t>ritenere</t>
-  </si>
-  <si>
     <t>fair</t>
   </si>
   <si>
-    <t>giusto/equo</t>
-  </si>
-  <si>
     <t>shy</t>
   </si>
   <si>
-    <t>timido</t>
-  </si>
-  <si>
     <t>swathe</t>
   </si>
   <si>
-    <t>fascia</t>
-  </si>
-  <si>
     <t>holy</t>
   </si>
   <si>
-    <t>santo</t>
-  </si>
-  <si>
     <t>garrison</t>
   </si>
   <si>
-    <t>guarnigione</t>
-  </si>
-  <si>
     <t>stretch the resources thin</t>
   </si>
   <si>
-    <t>stfruttare al massimo le risorse</t>
-  </si>
-  <si>
     <t>wage</t>
   </si>
   <si>
-    <t>solario / condurre</t>
-  </si>
-  <si>
     <t>retaliate</t>
   </si>
   <si>
-    <t>vendicare</t>
-  </si>
-  <si>
     <t>flowing</t>
   </si>
   <si>
-    <t>fluente</t>
-  </si>
-  <si>
     <t>robes</t>
   </si>
   <si>
-    <t>vesti</t>
-  </si>
-  <si>
     <t>fierce</t>
   </si>
   <si>
-    <t>feroce</t>
-  </si>
-  <si>
     <t>supplies</t>
   </si>
   <si>
-    <t>forniture</t>
-  </si>
-  <si>
     <t>fled</t>
   </si>
   <si>
-    <t>fuggito</t>
-  </si>
-  <si>
     <t>starved</t>
   </si>
   <si>
-    <t>affamato</t>
-  </si>
-  <si>
     <t>disguise</t>
   </si>
   <si>
-    <t>travestimento</t>
-  </si>
-  <si>
     <t>assaulted</t>
   </si>
   <si>
-    <t>aggredito</t>
-  </si>
-  <si>
     <t>ruth</t>
   </si>
   <si>
-    <t>pietà</t>
-  </si>
-  <si>
     <t>ruthless</t>
   </si>
   <si>
-    <t>spietato</t>
-  </si>
-  <si>
     <t>indeed</t>
   </si>
   <si>
@@ -607,321 +322,162 @@
     <t>glow</t>
   </si>
   <si>
-    <t>bagliore</t>
-  </si>
-  <si>
     <t>sorrow</t>
   </si>
   <si>
-    <t>tristezza</t>
-  </si>
-  <si>
     <t>sparks</t>
   </si>
   <si>
-    <t>scintille</t>
-  </si>
-  <si>
     <t>crackdown</t>
   </si>
   <si>
-    <t>repressione</t>
-  </si>
-  <si>
     <t>to target</t>
   </si>
   <si>
-    <t>colpire</t>
-  </si>
-  <si>
     <t>compound</t>
   </si>
   <si>
-    <t>composto</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
-    <t>anche se</t>
-  </si>
-  <si>
     <t>pond</t>
   </si>
   <si>
-    <t>stagno</t>
-  </si>
-  <si>
     <t>settler</t>
   </si>
   <si>
-    <t>colono</t>
-  </si>
-  <si>
     <t>snatch</t>
   </si>
   <si>
-    <t>strappare</t>
-  </si>
-  <si>
     <t>lurk</t>
   </si>
   <si>
-    <t>nascondersi</t>
-  </si>
-  <si>
     <t>crops</t>
   </si>
   <si>
-    <t>raccolti</t>
-  </si>
-  <si>
     <t>grieving</t>
   </si>
   <si>
-    <t>lutto</t>
-  </si>
-  <si>
     <t>clever</t>
   </si>
   <si>
-    <t>intelligente</t>
-  </si>
-  <si>
     <t>sickness</t>
   </si>
   <si>
-    <t>malattia</t>
-  </si>
-  <si>
     <t>pews</t>
   </si>
   <si>
-    <t>banchi</t>
-  </si>
-  <si>
     <t>outcast</t>
   </si>
   <si>
-    <t>emarginati</t>
-  </si>
-  <si>
     <t xml:space="preserve">beggar </t>
   </si>
   <si>
-    <t>mendicante</t>
-  </si>
-  <si>
     <t>stubborn</t>
   </si>
   <si>
-    <t>testardo</t>
-  </si>
-  <si>
     <t>fainting</t>
   </si>
   <si>
-    <t>svenimento</t>
-  </si>
-  <si>
     <t>tirelessly</t>
   </si>
   <si>
-    <t>instancabilmente</t>
-  </si>
-  <si>
     <t>narrow</t>
   </si>
   <si>
-    <t>Stretto</t>
-  </si>
-  <si>
     <t>sunscreen</t>
   </si>
   <si>
-    <t>protezione solare</t>
-  </si>
-  <si>
     <t>tough</t>
   </si>
   <si>
-    <t>difficile/duro</t>
-  </si>
-  <si>
     <t>get right into</t>
   </si>
   <si>
-    <t>entrare subito</t>
-  </si>
-  <si>
     <t>banquet</t>
   </si>
   <si>
-    <t>banchetto</t>
-  </si>
-  <si>
     <t>maid</t>
   </si>
   <si>
-    <t>domestica/cameriera</t>
-  </si>
-  <si>
     <t>prank</t>
   </si>
   <si>
-    <t>scherzo</t>
-  </si>
-  <si>
     <t>grim</t>
   </si>
   <si>
-    <t>cupo</t>
-  </si>
-  <si>
     <t>disarray</t>
   </si>
   <si>
-    <t>scompiglio</t>
-  </si>
-  <si>
     <t>sprawling</t>
   </si>
   <si>
-    <t>tentacolare</t>
-  </si>
-  <si>
     <t xml:space="preserve">bustling </t>
   </si>
   <si>
-    <t>brulicante</t>
-  </si>
-  <si>
     <t>porta potty</t>
   </si>
   <si>
-    <t>bagno chimico</t>
-  </si>
-  <si>
     <t>leverage</t>
   </si>
   <si>
-    <t>leva</t>
-  </si>
-  <si>
     <t>fundraiser</t>
   </si>
   <si>
-    <t>raccolta fondi</t>
-  </si>
-  <si>
     <t>landmark</t>
   </si>
   <si>
-    <t>punto di riferimento</t>
-  </si>
-  <si>
     <t>sought</t>
   </si>
   <si>
-    <t>cercato</t>
-  </si>
-  <si>
     <t>esque</t>
   </si>
   <si>
-    <t>stile</t>
-  </si>
-  <si>
     <t>motherhood</t>
   </si>
   <si>
-    <t>maternità</t>
-  </si>
-  <si>
     <t>bias mitigation</t>
   </si>
   <si>
-    <t>mitigazione dei pregiudizi</t>
-  </si>
-  <si>
     <t>disappoint</t>
   </si>
   <si>
-    <t>deludere</t>
-  </si>
-  <si>
     <t>explanatory</t>
   </si>
   <si>
-    <t>esplicativi</t>
-  </si>
-  <si>
     <t>synthetic</t>
   </si>
   <si>
-    <t>sintetici</t>
-  </si>
-  <si>
     <t>endorsement contract</t>
   </si>
   <si>
-    <t>contratto di sponsorizzazione</t>
-  </si>
-  <si>
     <t>craft</t>
   </si>
   <si>
-    <t>mestiere/artigianale</t>
-  </si>
-  <si>
     <t>pillow</t>
   </si>
   <si>
-    <t>cuscino</t>
-  </si>
-  <si>
     <t>awareness</t>
   </si>
   <si>
-    <t>consapevolezza</t>
-  </si>
-  <si>
     <t>thrive</t>
   </si>
   <si>
-    <t>prosperare</t>
-  </si>
-  <si>
     <t>blackmail</t>
   </si>
   <si>
-    <t>ricattare</t>
-  </si>
-  <si>
     <t>boot camp</t>
   </si>
   <si>
-    <t>campo di addestramento</t>
-  </si>
-  <si>
     <t>badass</t>
   </si>
   <si>
-    <t>prepotente</t>
-  </si>
-  <si>
     <t>cruise</t>
   </si>
   <si>
-    <t>crociera</t>
-  </si>
-  <si>
     <t>spot a cult</t>
   </si>
   <si>
-    <t>individuare una setta</t>
-  </si>
-  <si>
     <t xml:space="preserve">allegedly </t>
   </si>
   <si>
@@ -931,39 +487,21 @@
     <t>flagship</t>
   </si>
   <si>
-    <t>nave ammiraglia</t>
-  </si>
-  <si>
     <t>mermaid</t>
   </si>
   <si>
-    <t>sirena</t>
-  </si>
-  <si>
     <t>kidnap</t>
   </si>
   <si>
-    <t>rapire</t>
-  </si>
-  <si>
     <t>dive</t>
   </si>
   <si>
-    <t>tuffo</t>
-  </si>
-  <si>
     <t>hasty</t>
   </si>
   <si>
-    <t>frettoloso</t>
-  </si>
-  <si>
     <t>insane</t>
   </si>
   <si>
-    <t>pazzo</t>
-  </si>
-  <si>
     <t>ugualmente</t>
   </si>
   <si>
@@ -1148,26 +686,18 @@
   </si>
   <si>
     <t>english</t>
-  </si>
-  <si>
-    <t>italian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFECECEC"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1186,11 +716,6 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF5F6368"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF1F2328"/>
       <name val="Arial"/>
@@ -1200,19 +725,30 @@
       <color rgb="FF1F2328"/>
       <name val="-apple-system"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF101218"/>
-        <bgColor rgb="FF101218"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1260,24 +796,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1499,1296 +1038,976 @@
   <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="5" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="8" customWidth="1"/>
+    <col min="3" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B1" t="s">
-        <v>374</v>
+      <c r="A1" s="12" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A11" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A13" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="s">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A19" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A21" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A23" s="14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A24" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A25" s="14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A26" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A27" s="14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A28" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A29" s="14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A31" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A32" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A33" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="2" t="s">
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A34" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A35" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A19" s="2" t="s">
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A36" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A37" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A20" s="2" t="s">
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A38" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A39" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A40" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A41" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="s">
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A42" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A43" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A44" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A45" s="14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A24" s="2" t="s">
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A46" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A47" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A25" s="2" t="s">
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A48" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B48" s="9"/>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A49" s="14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A26" s="2" t="s">
+      <c r="B49" s="9"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A50" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B50" s="9"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A51" s="14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="2" t="s">
+      <c r="B51" s="9"/>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A52" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B52" s="9"/>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A53" s="14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A28" s="2" t="s">
+      <c r="B53" s="9"/>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A54" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B54" s="9"/>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A55" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
+      <c r="B55" s="9"/>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A56" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B56" s="9"/>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A57" s="14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A30" s="2" t="s">
+      <c r="B57" s="9"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A58" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B58" s="9"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A59" s="14" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A31" s="2" t="s">
+      <c r="B59" s="9"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A60" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B60" s="9"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A61" s="14" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
+      <c r="B61" s="9"/>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A62" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B62" s="9"/>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A63" s="14" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A33" s="2" t="s">
+      <c r="B63" s="9"/>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A64" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B64" s="9"/>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A65" s="14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A34" s="3" t="s">
+      <c r="B65" s="9"/>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A66" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B66" s="9"/>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A67" s="14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A35" s="3" t="s">
+      <c r="B67" s="9"/>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A68" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B68" s="9"/>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A69" s="14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A36" s="3" t="s">
+      <c r="B69" s="9"/>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A70" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B70" s="9"/>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A71" s="14" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A37" s="3" t="s">
+      <c r="B71" s="9"/>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A72" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B72" s="9"/>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A73" s="14" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="3" t="s">
+      <c r="B73" s="9"/>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A74" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B74" s="9"/>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A75" s="14" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A39" s="3" t="s">
+      <c r="B75" s="9"/>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A76" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B76" s="9"/>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A77" s="12" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A40" s="2" t="s">
+      <c r="B77" s="10"/>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A78" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B78" s="10"/>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A79" s="12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A41" s="2" t="s">
+      <c r="B79" s="10"/>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A80" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B80" s="10"/>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A81" s="12" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A42" s="2" t="s">
+      <c r="B81" s="10"/>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A82" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B82" s="10"/>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A83" s="12" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A43" s="2" t="s">
+      <c r="B83" s="10"/>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A84" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B84" s="10"/>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A85" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A44" s="2" t="s">
+      <c r="B85" s="10"/>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A86" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B86" s="10"/>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A87" s="12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="2" t="s">
+      <c r="B87" s="10"/>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A88" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B88" s="10"/>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A89" s="12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A46" s="2" t="s">
+      <c r="B89" s="10"/>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A90" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B90" s="10"/>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A91" s="12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A47" s="2" t="s">
+      <c r="B91" s="10"/>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A92" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B92" s="10"/>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A93" s="12" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A48" s="2" t="s">
+      <c r="B93" s="10"/>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A94" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B94" s="10"/>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A95" s="12" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A49" s="2" t="s">
+      <c r="B95" s="10"/>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A96" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B96" s="10"/>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A97" s="12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A50" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="B97" s="10"/>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A98" s="12" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A51" s="2" t="s">
+      <c r="B98" s="10"/>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A99" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B99" s="10"/>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A100" s="12" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A52" s="3" t="s">
+      <c r="B100" s="10"/>
+    </row>
+    <row r="101" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A101" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B101" s="10"/>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A102" s="12" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A53" s="3" t="s">
+      <c r="B102" s="10"/>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A103" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B103" s="10"/>
+    </row>
+    <row r="104" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A104" s="12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A54" s="3" t="s">
+      <c r="B104" s="10"/>
+    </row>
+    <row r="105" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A105" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B105" s="10"/>
+    </row>
+    <row r="106" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A106" s="12" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A55" s="3" t="s">
+      <c r="B106" s="10"/>
+    </row>
+    <row r="107" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A107" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B107" s="10"/>
+    </row>
+    <row r="108" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A108" s="12" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A56" s="3" t="s">
+      <c r="B108" s="10"/>
+    </row>
+    <row r="109" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A109" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B109" s="10"/>
+    </row>
+    <row r="110" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A110" s="12" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A57" s="3" t="s">
+      <c r="B110" s="10"/>
+    </row>
+    <row r="111" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A111" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B111" s="10"/>
+    </row>
+    <row r="112" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A112" s="12" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A58" s="3" t="s">
+      <c r="B112" s="10"/>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A113" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B113" s="10"/>
+    </row>
+    <row r="114" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A114" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A59" s="3" t="s">
+      <c r="B114" s="10"/>
+    </row>
+    <row r="115" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A115" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B115" s="10"/>
+    </row>
+    <row r="116" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A116" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A60" s="2" t="s">
+      <c r="B116" s="10"/>
+    </row>
+    <row r="117" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A117" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B117" s="10"/>
+    </row>
+    <row r="118" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A118" s="12" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A61" s="2" t="s">
+      <c r="B118" s="10"/>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A119" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B119" s="10"/>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A120" s="12" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A62" s="2" t="s">
+      <c r="B120" s="10"/>
+    </row>
+    <row r="121" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A121" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B121" s="10"/>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A122" s="12" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A63" s="3" t="s">
+      <c r="B122" s="10"/>
+    </row>
+    <row r="123" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A123" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B123" s="10"/>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A124" s="12" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A64" s="3" t="s">
+      <c r="B124" s="10"/>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A125" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B125" s="10"/>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A126" s="12" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="3" t="s">
+      <c r="B126" s="10"/>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A127" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B127" s="10"/>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A128" s="12" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A66" s="2" t="s">
+      <c r="B128" s="10"/>
+    </row>
+    <row r="129" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A129" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B129" s="10"/>
+    </row>
+    <row r="130" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A130" s="12" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A67" s="2" t="s">
+      <c r="B130" s="10"/>
+    </row>
+    <row r="131" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A131" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B131" s="10"/>
+    </row>
+    <row r="132" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A132" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B132" s="10"/>
+    </row>
+    <row r="133" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A133" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B133" s="10"/>
+    </row>
+    <row r="134" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A134" s="12" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A68" s="2" t="s">
+      <c r="B134" s="10"/>
+    </row>
+    <row r="135" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A135" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B135" s="10"/>
+    </row>
+    <row r="136" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A136" s="12" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A69" s="2" t="s">
+      <c r="B136" s="10"/>
+    </row>
+    <row r="137" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A137" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B137" s="10"/>
+    </row>
+    <row r="138" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A138" s="12" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A70" s="2" t="s">
+      <c r="B138" s="10"/>
+    </row>
+    <row r="139" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A139" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B139" s="10"/>
+    </row>
+    <row r="140" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A140" s="12" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A71" s="2" t="s">
+      <c r="B140" s="10"/>
+    </row>
+    <row r="141" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A141" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B141" s="11"/>
+    </row>
+    <row r="142" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A142" s="15" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A72" s="2" t="s">
+      <c r="B142" s="10"/>
+    </row>
+    <row r="143" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A143" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B143" s="10"/>
+    </row>
+    <row r="144" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A144" s="12" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A73" s="2" t="s">
+      <c r="B144" s="10"/>
+    </row>
+    <row r="145" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A145" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B145" s="10"/>
+    </row>
+    <row r="146" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A146" s="12" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A74" s="2" t="s">
+      <c r="B146" s="10"/>
+    </row>
+    <row r="147" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A147" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B147" s="10"/>
+    </row>
+    <row r="148" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A148" s="12" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A75" s="2" t="s">
+      <c r="B148" s="10"/>
+    </row>
+    <row r="149" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A149" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B149" s="10"/>
+    </row>
+    <row r="150" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A150" s="12" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A76" s="2" t="s">
+      <c r="B150" s="10"/>
+    </row>
+    <row r="151" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A151" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B151" s="10"/>
+    </row>
+    <row r="152" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A152" s="12" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A77" s="4" t="s">
+      <c r="B152" s="10"/>
+    </row>
+    <row r="153" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A153" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A78" s="4" t="s">
+      <c r="B153" s="10"/>
+    </row>
+    <row r="154" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A154" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B154" s="10"/>
+    </row>
+    <row r="155" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A155" s="12" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A79" s="4" t="s">
+      <c r="B155" s="10"/>
+    </row>
+    <row r="156" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A156" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B156" s="10"/>
+    </row>
+    <row r="157" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A157" s="12" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A80" s="4" t="s">
+      <c r="B157" s="10"/>
+    </row>
+    <row r="158" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A158" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B158" s="10"/>
+    </row>
+    <row r="159" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A159" s="12" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A81" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A82" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A83" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A84" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A85" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A86" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A87" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A88" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A89" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A90" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A91" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A92" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A93" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A94" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A95" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A96" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A97" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A98" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A99" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A100" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A101" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A102" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A103" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A104" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A105" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A106" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A107" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A108" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A109" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A110" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A111" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A112" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A113" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A114" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A115" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A116" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A117" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A118" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A119" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A120" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A121" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A122" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A123" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A124" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A125" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A126" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A127" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A128" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A129" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A130" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A131" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A132" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A133" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A134" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A135" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A136" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A137" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A138" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A139" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A140" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A141" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A142" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A143" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A144" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A145" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A146" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A147" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A148" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A149" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A150" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A151" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A152" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A153" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A154" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A155" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A156" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A157" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A158" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A159" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>311</v>
-      </c>
+      <c r="B159" s="10"/>
     </row>
     <row r="160" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A160" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>247</v>
-      </c>
+      <c r="A160" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B160" s="10"/>
     </row>
     <row r="161" ht="15.75" customHeight="1"/>
     <row r="162" ht="15.75" customHeight="1"/>
@@ -3648,315 +2867,315 @@
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="7" t="s">
-        <v>312</v>
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7" t="s">
-        <v>299</v>
+      <c r="A2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
-        <v>314</v>
+      <c r="A3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
-        <v>316</v>
+      <c r="A4" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="11" t="s">
-        <v>318</v>
+      <c r="A5" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
-        <v>320</v>
+      <c r="A6" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10" t="s">
-        <v>322</v>
+      <c r="A7" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
-        <v>324</v>
+      <c r="A8" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10" t="s">
-        <v>326</v>
+      <c r="A9" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="11" t="s">
-        <v>328</v>
+      <c r="A10" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="6" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
-        <v>330</v>
+      <c r="A11" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="12" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10" t="s">
-        <v>345</v>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9" t="s">
-        <v>337</v>
+      <c r="A20" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10" t="s">
-        <v>348</v>
+      <c r="A21" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9" t="s">
-        <v>350</v>
+      <c r="A22" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10" t="s">
-        <v>191</v>
+      <c r="A23" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9" t="s">
-        <v>353</v>
+      <c r="A24" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10" t="s">
-        <v>355</v>
+      <c r="A25" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9" t="s">
-        <v>326</v>
+      <c r="A26" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10" t="s">
-        <v>358</v>
+      <c r="A27" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9" t="s">
-        <v>360</v>
+      <c r="A28" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10" t="s">
-        <v>362</v>
+      <c r="A29" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9" t="s">
-        <v>364</v>
+      <c r="A30" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10" t="s">
-        <v>366</v>
+      <c r="A31" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9" t="s">
-        <v>368</v>
+      <c r="A32" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10" t="s">
-        <v>370</v>
+      <c r="A33" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9" t="s">
-        <v>372</v>
+      <c r="A34" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
